--- a/Zilean-Items.xlsx
+++ b/Zilean-Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="20115" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="20115" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>Build 1</t>
   </si>
@@ -202,14 +202,97 @@
   </si>
   <si>
     <t>110 = Min cap</t>
+  </si>
+  <si>
+    <t>Min 110</t>
+  </si>
+  <si>
+    <t>110-220</t>
+  </si>
+  <si>
+    <t>220-415</t>
+  </si>
+  <si>
+    <t>416-490</t>
+  </si>
+  <si>
+    <t>490+</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(x - 490) * .5 + (490+415) * .8 + 415 </t>
+  </si>
+  <si>
+    <t>Speed Increase - Real</t>
+  </si>
+  <si>
+    <t>Pre-Raw Adjustments</t>
+  </si>
+  <si>
+    <t>SWIFTIES</t>
+  </si>
+  <si>
+    <t>Base Movespeed + Boots Modifier</t>
+  </si>
+  <si>
+    <t>1 + % Movement Bonus</t>
+  </si>
+  <si>
+    <t>1 + Multiplicative Percentage MS Bonus</t>
+  </si>
+  <si>
+    <t>1 + Last Multiplicative Percentage MS Bonus</t>
+  </si>
+  <si>
+    <t>1 - Highest Slow Ratio * Slow Resist Ratio</t>
+  </si>
+  <si>
+    <t>SLOW RESIST STACKS MULTIPLICITAVELY</t>
+  </si>
+  <si>
+    <t>400 x (1 - (.4 * .75)) = 280</t>
+  </si>
+  <si>
+    <t>Current MS * (1 - (Your Slow * Slow Resist))</t>
+  </si>
+  <si>
+    <t>Slow Resist = 1 - Slow Resist Modifier</t>
+  </si>
+  <si>
+    <t>"+15"</t>
+  </si>
+  <si>
+    <t>"+15" x 1.03</t>
+  </si>
+  <si>
+    <t>OOC Mod</t>
+  </si>
+  <si>
+    <t>BASE SLOW</t>
+  </si>
+  <si>
+    <t>&gt;&gt; TEST THIS &lt;&lt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -249,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -257,11 +340,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -271,6 +391,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,80 +1337,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>55</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>490</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>563</v>
       </c>
-      <c r="X1">
-        <f>W1-490</f>
+      <c r="Y1">
+        <f>X1-490</f>
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>335</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>458</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>490</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>515</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>540</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>563</v>
       </c>
-      <c r="H2">
-        <f>B2-A2</f>
+      <c r="I2">
+        <f>C2-B2</f>
         <v>123</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:L2" si="0">C2-B2</f>
+      <c r="J2">
+        <f t="shared" ref="J2:M2" si="0">D2-C2</f>
         <v>32</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>25</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
@@ -1293,677 +1425,1263 @@
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="N2">
-        <f>F2-B2</f>
+      <c r="O2">
+        <f>G2-C2</f>
         <v>105</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f>ROUNDDOWN(335*0.99,0)</f>
         <v>331</v>
       </c>
-      <c r="Q2">
-        <f>415-A2</f>
+      <c r="R2">
+        <f>415-B2</f>
         <v>80</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>95</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>80</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>75</v>
       </c>
-      <c r="X2">
-        <f>X1*2</f>
+      <c r="Y2">
+        <f>Y1*2</f>
         <v>146</v>
       </c>
-      <c r="Y2">
-        <f>V2+X1+W2+335</f>
+      <c r="Z2">
+        <f>W2+Y1+X2+335</f>
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1.03</v>
+      </c>
+      <c r="B3">
         <v>345</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>466</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>495</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>520</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>545</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>568</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H17" si="1">B3-A3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="1">C3-B3</f>
         <v>121</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I17" si="2">C3-B3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="2">D3-C3</f>
         <v>29</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J17" si="3">D3-C3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="3">E3-D3</f>
         <v>25</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K17" si="4">E3-D3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="4">F3-E3</f>
         <v>25</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L17" si="5">F3-E3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="5">G3-F3</f>
         <v>23</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N17" si="6">F3-B3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O5" si="6">G3-C3</f>
         <v>102</v>
       </c>
-      <c r="Q3">
-        <f>ROUNDDOWN(P2-Q2, 0)</f>
+      <c r="R3">
+        <f>ROUNDDOWN(Q2-R2, 0)</f>
         <v>251</v>
       </c>
-      <c r="R3" s="8">
-        <f>ROUNDDOWN(Q3-R2,0)</f>
+      <c r="S3" s="8">
+        <f>ROUNDDOWN(R3-S2,0)</f>
         <v>156</v>
       </c>
-      <c r="S3">
-        <f>ROUNDDOWN(R3/2,0)</f>
+      <c r="T3">
+        <f>ROUNDDOWN(S3/2,0)</f>
         <v>78</v>
       </c>
-      <c r="T3">
-        <f>S1+S3</f>
+      <c r="U3">
+        <f>T1+T3</f>
         <v>568</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
         <v>350</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>475</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>501</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>528</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>554</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>578</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
         <v>361</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>480</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>507</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>533</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>559</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>584</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="P5">
-        <f>ROUNDDOWN(A17*0.99,0)</f>
+      <c r="Q5">
+        <f>ROUNDDOWN(B25*0.99,0)</f>
         <v>402</v>
       </c>
-      <c r="Q5">
-        <f>415-A17</f>
+      <c r="R5">
+        <f>415-B25</f>
         <v>8</v>
       </c>
-      <c r="R5">
-        <f>R2</f>
+      <c r="S5">
+        <f>S2</f>
         <v>95</v>
       </c>
-      <c r="X5">
-        <f>SUM(X2:X4)</f>
+      <c r="Y5">
+        <f>SUM(Y2:Y4)</f>
         <v>316</v>
       </c>
-      <c r="Y5">
-        <f>X5+335</f>
+      <c r="Z5">
+        <f>Y5+335</f>
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q6">
-        <f>P5-Q5</f>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f>Q5-R5</f>
         <v>394</v>
       </c>
-      <c r="R6">
-        <f>Q6-R5</f>
+      <c r="S6">
+        <f>R6-S5</f>
         <v>299</v>
       </c>
-      <c r="S6">
-        <f>R6/2</f>
+      <c r="T6">
+        <f>S6/2</f>
         <v>149.5</v>
       </c>
-      <c r="T6">
-        <f>S6+S1</f>
+      <c r="U6">
+        <f>T6+T1</f>
         <v>639.5</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f>335*1.99</f>
         <v>666.65</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7">
         <f>335*1.95</f>
         <v>653.25</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>360</v>
-      </c>
-      <c r="B8">
-        <v>482</v>
-      </c>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>509</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>536</v>
+        <v>1.55</v>
       </c>
       <c r="E8">
-        <v>563</v>
+        <v>1.7</v>
       </c>
       <c r="F8">
-        <v>588</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="6"/>
+        <v>1.85</v>
+      </c>
+      <c r="G8">
+        <v>1.99</v>
+      </c>
+      <c r="O8">
+        <f>G16-C16</f>
         <v>106</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>57</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f>75*1.2</f>
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>371</v>
-      </c>
-      <c r="B9">
-        <v>487</v>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
       </c>
       <c r="C9">
-        <v>514</v>
+        <f>C8*1.03</f>
+        <v>1.4419999999999999</v>
       </c>
       <c r="D9">
-        <v>541</v>
+        <f>D8*1.003</f>
+        <v>1.5546499999999999</v>
       </c>
       <c r="E9">
-        <v>568</v>
+        <f t="shared" ref="D9:G9" si="7">E8*1.03</f>
+        <v>1.7509999999999999</v>
       </c>
       <c r="F9">
-        <v>594</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>1.9055000000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>2.0497000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>B2</f>
+        <v>335</v>
+      </c>
+      <c r="C10">
+        <f>$B10*C$8</f>
+        <v>468.99999999999994</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10:G13" si="8">$B10*D$8</f>
+        <v>519.25</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="8"/>
+        <v>569.5</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="8"/>
+        <v>619.75</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="8"/>
+        <v>666.65</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
+        <f>(C10-490)*0.5+(490-415)*0.8+415</f>
+        <v>464.5</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" ref="J10:M10" si="9">(D10-490)*0.5+(490-415)*0.8+415</f>
+        <v>489.625</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="9"/>
+        <v>514.75</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="9"/>
+        <v>539.875</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="9"/>
+        <v>563.32500000000005</v>
+      </c>
+      <c r="O10">
+        <f>G17-C17</f>
+        <v>107</v>
+      </c>
+      <c r="R10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>B3</f>
+        <v>345</v>
+      </c>
+      <c r="C11">
+        <f>$B10*C$9</f>
+        <v>483.07</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="8"/>
+        <v>534.75</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="8"/>
+        <v>586.5</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="8"/>
+        <v>638.25</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="8"/>
+        <v>686.55</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
+        <f t="shared" ref="I11:I13" si="10">(C11-490)*0.5+(490-415)*0.8+415</f>
+        <v>471.53499999999997</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" ref="J11:J13" si="11">(D11-490)*0.5+(490-415)*0.8+415</f>
+        <v>497.375</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" ref="K11:K13" si="12">(E11-490)*0.5+(490-415)*0.8+415</f>
+        <v>523.25</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" ref="L11:L13" si="13">(F11-490)*0.5+(490-415)*0.8+415</f>
+        <v>549.125</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" ref="M11:M13" si="14">(G11-490)*0.5+(490-415)*0.8+415</f>
+        <v>573.27499999999998</v>
+      </c>
+      <c r="O11">
+        <f>G18-C18</f>
+        <v>110</v>
+      </c>
+      <c r="X11">
+        <v>629</v>
+      </c>
+      <c r="Y11">
+        <f>X11-490</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B4</f>
+        <v>350</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C11:C13" si="15">$B12*C$8</f>
+        <v>489.99999999999994</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="8"/>
+        <v>542.5</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="8"/>
+        <v>595</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="8"/>
+        <v>647.5</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="8"/>
+        <v>696.5</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
+        <f t="shared" si="10"/>
+        <v>475</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="11"/>
+        <v>501.25</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="12"/>
+        <v>527.5</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="13"/>
+        <v>553.75</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="14"/>
+        <v>578.25</v>
+      </c>
+      <c r="O12">
+        <f>G19-C19</f>
+        <v>111</v>
+      </c>
+      <c r="R12">
+        <f>335*1.03</f>
+        <v>345.05</v>
+      </c>
+      <c r="Y12">
+        <f>Y11*2</f>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B5</f>
+        <v>361</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="15"/>
+        <v>505.4</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="8"/>
+        <v>559.55000000000007</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="8"/>
+        <v>613.69999999999993</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="8"/>
+        <v>667.85</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="8"/>
+        <v>718.39</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
+        <f t="shared" si="10"/>
+        <v>482.7</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="11"/>
+        <v>509.77500000000003</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="12"/>
+        <v>536.84999999999991</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="13"/>
+        <v>563.92499999999995</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="14"/>
+        <v>589.19499999999994</v>
+      </c>
+      <c r="Y13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <f>415-B25</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15">
+        <f>G22-C22</f>
+        <v>112</v>
+      </c>
+      <c r="Y15">
+        <f>SUM(Y12:Y14)</f>
+        <v>380</v>
+      </c>
+      <c r="Z15">
+        <f>Y15+407</f>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>360</v>
+      </c>
+      <c r="C16">
+        <v>482</v>
+      </c>
+      <c r="D16">
+        <v>509</v>
+      </c>
+      <c r="E16">
+        <v>536</v>
+      </c>
+      <c r="F16">
+        <v>563</v>
+      </c>
+      <c r="G16">
+        <v>588</v>
+      </c>
+      <c r="I16">
+        <f>C16-B16</f>
+        <v>122</v>
+      </c>
+      <c r="J16">
+        <f>D16-C16</f>
         <v>27</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
+      <c r="K16">
+        <f>E16-D16</f>
         <v>27</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
+      <c r="L16">
+        <f>F16-E16</f>
         <v>27</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="6"/>
-        <v>107</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>375</v>
-      </c>
-      <c r="B10">
-        <v>493</v>
-      </c>
-      <c r="C10">
-        <v>521</v>
-      </c>
-      <c r="D10">
-        <v>549</v>
-      </c>
-      <c r="E10">
-        <v>577</v>
-      </c>
-      <c r="F10">
-        <v>603</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="W10">
-        <v>629</v>
-      </c>
-      <c r="X10">
-        <f>W10-490</f>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>386</v>
-      </c>
-      <c r="B11">
-        <v>498</v>
-      </c>
-      <c r="C11">
-        <v>526</v>
-      </c>
-      <c r="D11">
-        <v>554</v>
-      </c>
-      <c r="E11">
-        <v>583</v>
-      </c>
-      <c r="F11">
-        <v>609</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="M16">
+        <f>G16-F16</f>
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <f>G23-C23</f>
         <v>112</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="6"/>
-        <v>111</v>
-      </c>
-      <c r="X11">
-        <f>X10*2</f>
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="X12">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X13">
-        <f>415-A17</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>380</v>
-      </c>
-      <c r="B14">
-        <v>496</v>
-      </c>
-      <c r="C14">
-        <v>525</v>
-      </c>
-      <c r="D14">
-        <v>553</v>
-      </c>
-      <c r="E14">
-        <v>582</v>
-      </c>
-      <c r="F14">
-        <v>608</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="6"/>
-        <v>112</v>
-      </c>
-      <c r="X14">
-        <f>SUM(X11:X13)</f>
-        <v>380</v>
-      </c>
-      <c r="Y14">
-        <f>X14+407</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>391</v>
-      </c>
-      <c r="B15">
-        <v>502</v>
-      </c>
-      <c r="C15">
-        <v>530</v>
-      </c>
-      <c r="D15">
-        <v>559</v>
-      </c>
-      <c r="E15">
-        <v>587</v>
-      </c>
-      <c r="F15">
-        <v>614</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="6"/>
-        <v>112</v>
-      </c>
-      <c r="Y15">
+      <c r="Z16">
         <f>407*1.99</f>
         <v>809.93</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>395</v>
-      </c>
-      <c r="B16">
-        <v>507</v>
-      </c>
-      <c r="C16">
-        <v>536</v>
-      </c>
-      <c r="D16">
-        <v>566</v>
-      </c>
-      <c r="E16">
-        <v>595</v>
-      </c>
-      <c r="F16">
-        <v>623</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="6"/>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>371</v>
+      </c>
+      <c r="C17">
+        <v>487</v>
+      </c>
+      <c r="D17">
+        <v>514</v>
+      </c>
+      <c r="E17">
+        <v>541</v>
+      </c>
+      <c r="F17">
+        <v>568</v>
+      </c>
+      <c r="G17">
+        <v>594</v>
+      </c>
+      <c r="I17">
+        <f>C17-B17</f>
         <v>116</v>
       </c>
-      <c r="Y16">
+      <c r="J17">
+        <f>D17-C17</f>
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <f>E17-D17</f>
+        <v>27</v>
+      </c>
+      <c r="L17">
+        <f>F17-E17</f>
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <f>G17-F17</f>
+        <v>26</v>
+      </c>
+      <c r="O17">
+        <f>G24-C24</f>
+        <v>116</v>
+      </c>
+      <c r="Z17">
         <f>407*1.93</f>
         <v>785.51</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>375</v>
+      </c>
+      <c r="C18">
+        <v>493</v>
+      </c>
+      <c r="D18">
+        <v>521</v>
+      </c>
+      <c r="E18">
+        <v>549</v>
+      </c>
+      <c r="F18">
+        <v>577</v>
+      </c>
+      <c r="G18">
+        <v>603</v>
+      </c>
+      <c r="I18">
+        <f>C18-B18</f>
+        <v>118</v>
+      </c>
+      <c r="J18">
+        <f>D18-C18</f>
+        <v>28</v>
+      </c>
+      <c r="K18">
+        <f>E18-D18</f>
+        <v>28</v>
+      </c>
+      <c r="L18">
+        <f>F18-E18</f>
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <f>G18-F18</f>
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <f>G25-C25</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>386</v>
+      </c>
+      <c r="C19">
+        <v>498</v>
+      </c>
+      <c r="D19">
+        <v>526</v>
+      </c>
+      <c r="E19">
+        <v>554</v>
+      </c>
+      <c r="F19">
+        <v>583</v>
+      </c>
+      <c r="G19">
+        <v>609</v>
+      </c>
+      <c r="I19">
+        <f>C19-B19</f>
+        <v>112</v>
+      </c>
+      <c r="J19">
+        <f>D19-C19</f>
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <f>E19-D19</f>
+        <v>28</v>
+      </c>
+      <c r="L19">
+        <f>F19-E19</f>
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <f>G19-F19</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>380</v>
+      </c>
+      <c r="C22">
+        <v>496</v>
+      </c>
+      <c r="D22">
+        <v>525</v>
+      </c>
+      <c r="E22">
+        <v>553</v>
+      </c>
+      <c r="F22">
+        <v>582</v>
+      </c>
+      <c r="G22">
+        <v>608</v>
+      </c>
+      <c r="I22">
+        <f>C22-B22</f>
+        <v>116</v>
+      </c>
+      <c r="J22">
+        <f>D22-C22</f>
+        <v>29</v>
+      </c>
+      <c r="K22">
+        <f>E22-D22</f>
+        <v>28</v>
+      </c>
+      <c r="L22">
+        <f>F22-E22</f>
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <f>G22-F22</f>
+        <v>26</v>
+      </c>
+      <c r="R22" t="s">
+        <v>64</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>391</v>
+      </c>
+      <c r="C23">
+        <v>502</v>
+      </c>
+      <c r="D23">
+        <v>530</v>
+      </c>
+      <c r="E23">
+        <v>559</v>
+      </c>
+      <c r="F23">
+        <v>587</v>
+      </c>
+      <c r="G23">
+        <v>614</v>
+      </c>
+      <c r="I23">
+        <f>C23-B23</f>
+        <v>111</v>
+      </c>
+      <c r="J23">
+        <f>D23-C23</f>
+        <v>28</v>
+      </c>
+      <c r="K23">
+        <f>E23-D23</f>
+        <v>29</v>
+      </c>
+      <c r="L23">
+        <f>F23-E23</f>
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <f>G23-F23</f>
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>395</v>
+      </c>
+      <c r="C24">
+        <v>507</v>
+      </c>
+      <c r="D24">
+        <v>536</v>
+      </c>
+      <c r="E24">
+        <v>566</v>
+      </c>
+      <c r="F24">
+        <v>595</v>
+      </c>
+      <c r="G24">
+        <v>623</v>
+      </c>
+      <c r="I24">
+        <f>C24-B24</f>
+        <v>112</v>
+      </c>
+      <c r="J24">
+        <f>D24-C24</f>
+        <v>29</v>
+      </c>
+      <c r="K24">
+        <f>E24-D24</f>
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <f>F24-E24</f>
+        <v>29</v>
+      </c>
+      <c r="M24">
+        <f>G24-F24</f>
+        <v>28</v>
+      </c>
+      <c r="R24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>407</v>
       </c>
-      <c r="B17">
+      <c r="C25">
         <v>512</v>
       </c>
-      <c r="C17">
+      <c r="D25">
         <v>542</v>
       </c>
-      <c r="D17">
+      <c r="E25">
         <v>572</v>
       </c>
-      <c r="E17">
+      <c r="F25">
         <v>601</v>
       </c>
-      <c r="F17">
+      <c r="G25">
         <v>629</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
+      <c r="I25">
+        <f>C25-B25</f>
         <v>105</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
+      <c r="J25">
+        <f>D25-C25</f>
         <v>30</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
+      <c r="K25">
+        <f>E25-D25</f>
         <v>30</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
+      <c r="L25">
+        <f>F25-E25</f>
         <v>29</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
+      <c r="M25">
+        <f>G25-F25</f>
         <v>28</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="6"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B22</f>
+        <v>380</v>
+      </c>
+      <c r="C28">
+        <f>$B28*C$8</f>
+        <v>532</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:G31" si="16">$B28*D$8</f>
+        <v>589</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="16"/>
+        <v>646</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="16"/>
+        <v>703</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="16"/>
+        <v>756.2</v>
+      </c>
+      <c r="I28">
+        <f>(C28-490)*0.5+(490-415)*0.8+415</f>
+        <v>496</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:M28" si="17">(D28-490)*0.5+(490-415)*0.8+415</f>
+        <v>524.5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="17"/>
+        <v>553</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="17"/>
+        <v>581.5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="17"/>
+        <v>608.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" ref="B29:B31" si="18">B23</f>
+        <v>391</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C31" si="19">$B29*C$8</f>
+        <v>547.4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="16"/>
+        <v>606.05000000000007</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="16"/>
+        <v>664.69999999999993</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="16"/>
+        <v>723.35</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="16"/>
+        <v>778.09</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I31" si="20">(C29-490)*0.5+(490-415)*0.8+415</f>
+        <v>503.7</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J31" si="21">(D29-490)*0.5+(490-415)*0.8+415</f>
+        <v>533.02500000000009</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K31" si="22">(E29-490)*0.5+(490-415)*0.8+415</f>
+        <v>562.34999999999991</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L31" si="23">(F29-490)*0.5+(490-415)*0.8+415</f>
+        <v>591.67499999999995</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:M31" si="24">(G29-490)*0.5+(490-415)*0.8+415</f>
+        <v>619.04500000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="18"/>
+        <v>395</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="19"/>
+        <v>553</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="16"/>
+        <v>612.25</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="16"/>
+        <v>671.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="16"/>
+        <v>730.75</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="16"/>
+        <v>786.05</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="20"/>
+        <v>506.5</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="21"/>
+        <v>536.125</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="22"/>
+        <v>565.75</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="23"/>
+        <v>595.375</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="24"/>
+        <v>623.02499999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="18"/>
+        <v>407</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="19"/>
+        <v>569.79999999999995</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="16"/>
+        <v>630.85</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="16"/>
+        <v>691.9</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="16"/>
+        <v>752.95</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="16"/>
+        <v>809.93</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="20"/>
+        <v>514.9</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="21"/>
+        <v>545.42499999999995</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="22"/>
+        <v>575.95000000000005</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="23"/>
+        <v>606.47500000000002</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="24"/>
+        <v>634.96499999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="Q33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>400</v>
+      </c>
+      <c r="C44">
+        <v>510</v>
+      </c>
+      <c r="D44">
+        <v>540</v>
+      </c>
+      <c r="E44">
+        <v>570</v>
+      </c>
+      <c r="F44">
+        <v>600</v>
+      </c>
+      <c r="G44">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>412</v>
+      </c>
+      <c r="C45">
+        <v>516</v>
+      </c>
+      <c r="D45">
+        <v>546</v>
+      </c>
+      <c r="E45">
+        <v>576</v>
+      </c>
+      <c r="F45">
+        <v>606</v>
+      </c>
+      <c r="G45">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>415</v>
+      </c>
+      <c r="C46">
+        <v>521</v>
+      </c>
+      <c r="D46">
+        <v>552</v>
+      </c>
+      <c r="E46">
+        <v>583</v>
+      </c>
+      <c r="F46">
+        <v>614</v>
+      </c>
+      <c r="G46">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>425</v>
+      </c>
+      <c r="C47">
+        <v>527</v>
+      </c>
+      <c r="D47">
+        <v>558</v>
+      </c>
+      <c r="E47">
+        <v>589</v>
+      </c>
+      <c r="F47">
+        <v>620</v>
+      </c>
+      <c r="G47">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -1973,15 +2691,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -2003,8 +2721,11 @@
       <c r="H1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>335</v>
       </c>
@@ -2023,8 +2744,11 @@
       <c r="F2">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>360</v>
       </c>
@@ -2034,8 +2758,11 @@
       <c r="F3">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>370</v>
       </c>
@@ -2057,16 +2784,35 @@
       <c r="H4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>380</v>
       </c>
       <c r="F5">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>A4-A2</f>
         <v>35</v>
@@ -2091,8 +2837,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>B4-F4</f>
         <v>110</v>
@@ -2102,7 +2851,121 @@
         <v>56</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.7</v>
+      </c>
+      <c r="E12">
+        <v>0.85</v>
+      </c>
+      <c r="F12">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>405</v>
+      </c>
+      <c r="B13">
+        <v>285</v>
+      </c>
+      <c r="C13">
+        <v>238</v>
+      </c>
+      <c r="D13">
+        <v>206</v>
+      </c>
+      <c r="E13">
+        <v>183</v>
+      </c>
+      <c r="F13">
+        <v>162</v>
+      </c>
+      <c r="H13">
+        <f>220-F13</f>
+        <v>58</v>
+      </c>
+      <c r="I13">
+        <f>H13/2</f>
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <f>220-I13</f>
+        <v>191</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>220-F15</f>
+        <v>220</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I14:I15" si="1">H15/2</f>
+        <v>110</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J14:J15" si="2">220-I15</f>
+        <v>110</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>